--- a/biology/Botanique/Square_Emily-Dickinson/Square_Emily-Dickinson.xlsx
+++ b/biology/Botanique/Square_Emily-Dickinson/Square_Emily-Dickinson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Emily-Dickinson est un square du 20e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Accessible par la rue des Ormeaux et la rue des Grands-Champs, ce site est desservi par la ligne 2 à la station de métro Avron, par les lignes 1, 2, 6 et 9 à la station Nation, par la ligne 9 à la station Buzenval, par la ligne A du RER à la gare de Nation et par les lignes de tramway 3a et 3b.
 </t>
@@ -543,9 +557,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square honore la mémoire de la grande poétesse américaine Emily Dickinson[1] (1830-1886).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square honore la mémoire de la grande poétesse américaine Emily Dickinson (1830-1886).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancien « square des Ormeaux » a été rebaptisé fin 2013. 
 Le square a reçu deux labels : EcoJardin et QualiPARIS.
